--- a/Day-2 Testing/UserStories 5 - Day 2.xlsx
+++ b/Day-2 Testing/UserStories 5 - Day 2.xlsx
@@ -77,7 +77,7 @@
   </si>
   <si>
     <t>1.Launch the browser
-2.Open the url:https://studenthostel.neohire.io/admin/dashboard.php
+2.Open the url:https://carrental.neohire.io/admin/dashboard.php
 3.Click on the Admin Login Option
 4.Enter the valid username and password
 5.Click on the Login Button</t>
@@ -103,7 +103,7 @@
   </si>
   <si>
     <t>1.Launch the browser
-2.Open the url:https://studenthostel.neohire.io/admin/dashboard.php
+2.Open the url:https://carrental.neohire.io/admin/dashboard.php
 3.Click on the Admin Login Option
 4.Enter the invalid username and password
 5.Click on the Login Button</t>
@@ -124,7 +124,7 @@
   </si>
   <si>
     <t>1.Launch the browser
-2.Open the url:https://studenthostel.neohire.io/admin/dashboard.php
+2.Open the url:https://carrental.neohire.io/admin/dashboard.php
 3.Click on the Admin Login Option
 4.Enter the invalid username 
 5.Click on the Login Button</t>
@@ -145,7 +145,7 @@
   </si>
   <si>
     <t>1.Launch the browser
-2.Open the url:https://studenthostel.neohire.io/admin/dashboard.php
+2.Open the url:https://carrental.neohire.io/admin/dashboard.php
 3.Click on the Admin Login Option
 4.Enter the invalid password 
 5.Click on the Login Button</t>
